--- a/biology/Médecine/Laboratoire_Super_Diet/Laboratoire_Super_Diet.xlsx
+++ b/biology/Médecine/Laboratoire_Super_Diet/Laboratoire_Super_Diet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Laboratoires Super Diet est un laboratoire pharmaceutique français créé en 1961, spécialisé en compléments alimentaires et en phytothérapie bio. 
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1961 : fabrication de comprimés à base de pollen de fleurs par René HAUSSIN et création de la société Super Diet
 1964 : démarrage de la commercialisation des produits Super Diet dans les magasins diététiques
@@ -556,8 +570,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fabrication et distribution
-Les laboratoires Super Diet formulent, fabriquent et commercialisent des produits de santé à base de plantes en comprimés, en gélules, en ampoules buvables issues pour la grande majorité de l’agriculture biologique.
+          <t>Fabrication et distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les laboratoires Super Diet formulent, fabriquent et commercialisent des produits de santé à base de plantes en comprimés, en gélules, en ampoules buvables issues pour la grande majorité de l’agriculture biologique.
 Les différents secteurs d'activité sont, par ordre d'importance décroissant :
 les compléments alimentaires à base de plantes : la phytothérapie
 les compléments alimentaires à base de substances d'origine naturelle.
@@ -566,8 +585,43 @@
 Le site de production est situé à Wavrechain-sous-Denain, dans le département du Nord. Environ 50 espèces végétales sont cultivées et extraites suivant des procédés d'extraction naturels. 
 Les matières premières sont sélectionnées en fonction de la proximité géographique, de l'origine biologique des plantes ainsi que des critères de qualité spécifiques à chaque espèce. 
 La politique d'achat de la société privilégie des produits biologiques, français et solidaires et encourage financièrement l'agriculture biologique des produits non bio.
-Vie de l'entreprise
-La société met en place progressivement durant les années 2000, une structure interne nommée « Planète Super Diet » qui organise diverses actions humanitaires : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Laboratoire_Super_Diet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_Super_Diet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Activités du groupe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie de l'entreprise</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La société met en place progressivement durant les années 2000, une structure interne nommée « Planète Super Diet » qui organise diverses actions humanitaires : 
 journée de solidarité au profit d'associations locales
 actions de responsabilité sociale des entreprises
 investissements dans des associations pour l'enfance ou le handicap</t>
